--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Burndown Chart.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danixa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6286F2F8-AE60-4676-BC95-FC4990B3C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9FA8B-9F59-4CAA-A236-6F91C761FF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TablaDeDatos_Tareas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Sprint</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Investigación de Desregularización emocional y acciones a tomar </t>
   </si>
   <si>
-    <t>Investigación de instrumentos más adecuados para desregularización </t>
-  </si>
-  <si>
     <t>Definición de requisitos iniciales </t>
   </si>
   <si>
@@ -346,7 +343,13 @@
     <t>Hrs. Estimadas</t>
   </si>
   <si>
+    <t>Investigación de instrumentos más adecuados para desregularización </t>
+  </si>
+  <si>
     <t>Desarrollo de terapias básicas (cromoterapia, respiración, música) </t>
+  </si>
+  <si>
+    <t>Sprint 0</t>
   </si>
   <si>
     <t>Semanas</t>
@@ -358,20 +361,23 @@
     <t>Tiempo Ideal</t>
   </si>
   <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +443,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB3CBEF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -845,9 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,7 +1186,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,6 +1194,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3048,6 +3061,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFB3CBEF"/>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFFEFFE3"/>
     </mruColors>
   </colors>
@@ -3165,10 +3180,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$2:$B$4</c:f>
+              <c:f>BurndownChart_Intervalo!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3177,16 +3192,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$C$2:$C$4</c:f>
+              <c:f>BurndownChart_Intervalo!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>19.399999999999999</c:v>
                 </c:pt>
@@ -3194,7 +3212,10 @@
                   <c:v>19.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.5</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,10 +3255,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$2:$B$4</c:f>
+              <c:f>BurndownChart_Intervalo!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3246,16 +3267,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$D$2:$D$4</c:f>
+              <c:f>BurndownChart_Intervalo!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -3264,6 +3288,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,30 +3722,36 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$6:$B$7</c:f>
+              <c:f>BurndownChart_Intervalo!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$C$6:$C$7</c:f>
+              <c:f>BurndownChart_Intervalo!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,30 +3791,36 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$6:$B$7</c:f>
+              <c:f>BurndownChart_Intervalo!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$D$6:$D$7</c:f>
+              <c:f>BurndownChart_Intervalo!$D$7:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,10 +4252,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$9:$B$11</c:f>
+              <c:f>BurndownChart_Intervalo!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4225,24 +4264,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$C$9:$C$11</c:f>
+              <c:f>BurndownChart_Intervalo!$C$10:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,10 +4327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$B$9:$B$11</c:f>
+              <c:f>BurndownChart_Intervalo!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4294,16 +4339,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart_Intervalo!$D$9:$D$11</c:f>
+              <c:f>BurndownChart_Intervalo!$D$10:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -4312,6 +4360,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,6 +4692,584 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Burndown Chart - Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurndownChart_Intervalo!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BurndownChart_Intervalo!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart_Intervalo!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6E3-4767-8C17-BC2278F663C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BurndownChart_Intervalo!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BurndownChart_Intervalo!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BurndownChart_Intervalo!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6E3-4767-8C17-BC2278F663C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1018942175"/>
+        <c:axId val="1401275439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1018942175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Semanas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1401275439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1401275439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> (Hrs.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018942175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -6470,7 +7099,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7965,6 +8594,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
   <a:srgbClr val="637CEF"/>
   <a:srgbClr val="E3008C"/>
@@ -7990,7 +8659,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
   <a:srgbClr val="637CEF"/>
   <a:srgbClr val="E3008C"/>
@@ -10081,6 +10750,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10692,6 +11877,9 @@
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3F768E-0A66-444C-A700-2E904F2EC524}"/>
             </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86FBE8CE-5081-4860-943D-C662E85FACD6}"/>
+            </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
@@ -10705,6 +11893,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD783B7-BB49-4CC4-A0FC-24D8138E5BEF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{86FBE8CE-5081-4860-943D-C662E85FACD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11389,7 +12618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFC6134A-D8D6-4990-9D3D-4B41D020BA82}" name="Tabla dinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFC6134A-D8D6-4990-9D3D-4B41D020BA82}" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="9">
   <location ref="F27:H48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11654,7 +12883,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27B5D2C-4703-4DF8-8EDF-3886DBEEC9BD}" name="TablaDinámica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F27B5D2C-4703-4DF8-8EDF-3886DBEEC9BD}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="F53:H58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -11755,8 +12984,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D5635AD-05DA-488C-8C0E-EE5972769457}" name="Tabla1" displayName="Tabla1" ref="A3:U23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A3:U23" xr:uid="{4D5635AD-05DA-488C-8C0E-EE5972769457}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D5635AD-05DA-488C-8C0E-EE5972769457}" name="Tabla1" displayName="Tabla1" ref="A3:U24" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+  <autoFilter ref="A3:U24" xr:uid="{4D5635AD-05DA-488C-8C0E-EE5972769457}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{54AB33CC-3AB1-4985-B681-2A7F4CE9C8AE}" name="Sprint" dataDxfId="57"/>
     <tableColumn id="21" xr3:uid="{45ED290D-104E-426C-9473-C81710CEF8EC}" name="ID Tarea" dataDxfId="56"/>
@@ -11831,8 +13060,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{039DE0BA-DB60-4D79-913A-37C4480B3D96}" name="Tabla2" displayName="Tabla2" ref="B1:D20" totalsRowShown="0">
-  <autoFilter ref="B1:D20" xr:uid="{039DE0BA-DB60-4D79-913A-37C4480B3D96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{039DE0BA-DB60-4D79-913A-37C4480B3D96}" name="Tabla2" displayName="Tabla2" ref="B1:D21" totalsRowShown="0">
+  <autoFilter ref="B1:D21" xr:uid="{039DE0BA-DB60-4D79-913A-37C4480B3D96}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C4943A82-DB33-4D44-AD9D-84A8A34212DC}" name="Semanas"/>
     <tableColumn id="2" xr3:uid="{A442FBA0-E44D-4250-BE82-45C526AAACB9}" name="Tiempo Real" dataDxfId="0"/>
@@ -12161,20 +13390,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AK83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="12.296875" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.296875" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.59765625" customWidth="1"/>
     <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
@@ -12198,886 +13427,963 @@
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="129" t="s">
+      <c r="W3" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
     </row>
     <row r="4" spans="1:33" ht="47.4" customHeight="1">
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>18</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>16.700000000000003</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>8.4</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>0</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>0</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>0</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>0</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>0</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>0</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>0</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>0</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>0</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>0</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <v>0</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="35">
         <v>0</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <v>0</v>
       </c>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
     </row>
     <row r="5" spans="1:33" ht="55.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>15</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>13.4</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>7</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>6.4</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
     </row>
-    <row r="6" spans="1:33" ht="55.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="C6" s="33">
+        <f>SUM(TablaDeDatos_Tareas!H9:H12)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="34">
         <v>8</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>9</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>4</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>5</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="128"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="128"/>
+      <c r="AF6" s="128"/>
+      <c r="AG6" s="128"/>
     </row>
     <row r="7" spans="1:33" ht="27.6">
       <c r="A7" s="3">
         <v>0</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="C7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="34">
         <v>2</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>3</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>3</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="128"/>
     </row>
     <row r="8" spans="1:33" ht="27.6">
       <c r="A8" s="3">
         <v>0</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="C8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="34">
         <v>4</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>6</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>0</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>6</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="130"/>
-      <c r="AF8" s="130"/>
-      <c r="AG8" s="130"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="128"/>
     </row>
     <row r="9" spans="1:33" ht="27.6">
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="C9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="38">
         <v>20</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>19</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39">
         <v>12.5</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <v>6.5</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="41"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
     </row>
     <row r="10" spans="1:33" ht="27.6">
       <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="C10" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="42">
         <v>18</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>16</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43">
         <v>6</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>10</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:33" ht="27.6">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="43">
+      <c r="C11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="42">
         <v>8</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>8</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44">
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43">
         <v>4</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <v>4</v>
       </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
     </row>
     <row r="12" spans="1:33" ht="27.6">
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>9</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="C12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="42">
         <v>4</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>6</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43">
         <v>2</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>4</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="44"/>
     </row>
     <row r="13" spans="1:33" ht="27.6">
       <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="47">
+      <c r="C13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="46">
         <v>4</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="47">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>4</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47">
         <v>4</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="49"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
     </row>
     <row r="14" spans="1:33" ht="41.4">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>11</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="51">
+      <c r="C14" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="50">
         <v>16</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
         <v>16</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51">
         <v>8</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="51">
         <v>8</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
     </row>
     <row r="15" spans="1:33" ht="41.4">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>12</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="51">
+      <c r="C15" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="50">
         <v>16</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>16</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52">
-        <v>8</v>
-      </c>
-      <c r="M15" s="52">
-        <v>8</v>
-      </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="53"/>
+        <v>21</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51">
+        <v>15</v>
+      </c>
+      <c r="M15" s="51">
+        <v>6</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="52"/>
     </row>
     <row r="16" spans="1:33" ht="27.6">
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>13</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56">
+      <c r="C16" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="54">
+        <v>6</v>
+      </c>
+      <c r="E16" s="55">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55">
+        <v>6</v>
+      </c>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
     </row>
-    <row r="17" spans="1:26" ht="27.6">
+    <row r="17" spans="1:26" ht="24.6" customHeight="1">
       <c r="A17" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>14</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60">
+      <c r="C17" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="58">
+        <v>8</v>
+      </c>
+      <c r="E17" s="59">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="61"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="59">
+        <v>5</v>
+      </c>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="60"/>
     </row>
     <row r="18" spans="1:26" ht="27.6">
       <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="26">
-        <v>15</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60">
+      <c r="B18" s="25">
+        <v>14</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="58">
+        <v>10</v>
+      </c>
+      <c r="E18" s="59">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" s="59">
+        <v>5.5</v>
+      </c>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="60"/>
     </row>
     <row r="19" spans="1:26" ht="27.6">
       <c r="A19" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="26">
-        <v>16</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60">
+      <c r="B19" s="25">
+        <v>15</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="58">
+        <v>8</v>
+      </c>
+      <c r="E19" s="59">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="61"/>
+        <v>8</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="59">
+        <v>2</v>
+      </c>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="60"/>
     </row>
     <row r="20" spans="1:26" ht="27.6">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="31">
-        <v>17</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60">
+      <c r="B20" s="25">
+        <v>16</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="58">
+        <v>8</v>
+      </c>
+      <c r="E20" s="59">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="61"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="60"/>
     </row>
     <row r="21" spans="1:26" ht="27.6">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="30">
+        <v>17</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="58">
+        <v>14</v>
+      </c>
+      <c r="E21" s="59">
+        <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
+        <v>14</v>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="59">
+        <v>6</v>
+      </c>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="60"/>
+    </row>
+    <row r="22" spans="1:26" ht="28.2" thickBot="1">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26">
         <v>18</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60">
+      <c r="C22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="58">
+        <v>2</v>
+      </c>
+      <c r="E22" s="59">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="61"/>
-    </row>
-    <row r="22" spans="1:26" ht="27.6">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="28">
-        <v>19</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64">
-        <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="65"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59">
+        <v>2</v>
+      </c>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="60"/>
     </row>
     <row r="23" spans="1:26" ht="27.6">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="27">
+        <v>19</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="62">
+        <v>4</v>
+      </c>
+      <c r="E23" s="63">
+        <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="T23" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="U23" s="64"/>
+    </row>
+    <row r="24" spans="1:26" ht="27.6">
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17">
         <v>20</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68">
+      <c r="C24" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="66">
+        <v>6</v>
+      </c>
+      <c r="E24" s="67">
         <f>SUM(Tabla1[[#This Row],[Semana 3]:[Semana 18]])</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="69"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67">
+        <v>4</v>
+      </c>
+      <c r="T24" s="67">
+        <v>2</v>
+      </c>
+      <c r="U24" s="68"/>
     </row>
     <row r="25" spans="1:26">
       <c r="F25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:26" s="13" customFormat="1">
@@ -13093,10 +14399,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
         <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -13124,10 +14430,10 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28">
         <v>18</v>
       </c>
-      <c r="H28" s="128">
+      <c r="H28">
         <v>16.700000000000003</v>
       </c>
       <c r="I28"/>
@@ -13156,10 +14462,10 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="128">
+      <c r="G29">
         <v>15</v>
       </c>
-      <c r="H29" s="128">
+      <c r="H29">
         <v>13.4</v>
       </c>
       <c r="I29"/>
@@ -13188,10 +14494,10 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="128">
+      <c r="G30">
         <v>8</v>
       </c>
-      <c r="H30" s="128">
+      <c r="H30">
         <v>9</v>
       </c>
       <c r="I30"/>
@@ -13220,10 +14526,10 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" s="128">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" s="128">
+      <c r="H31">
         <v>3</v>
       </c>
       <c r="I31"/>
@@ -13252,10 +14558,10 @@
       <c r="F32">
         <v>5</v>
       </c>
-      <c r="G32" s="128">
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" s="128">
+      <c r="H32">
         <v>6</v>
       </c>
       <c r="I32"/>
@@ -13284,10 +14590,10 @@
       <c r="F33">
         <v>6</v>
       </c>
-      <c r="G33" s="128">
+      <c r="G33">
         <v>20</v>
       </c>
-      <c r="H33" s="128">
+      <c r="H33">
         <v>19</v>
       </c>
       <c r="I33"/>
@@ -13309,10 +14615,10 @@
       <c r="F34">
         <v>7</v>
       </c>
-      <c r="G34" s="128">
+      <c r="G34">
         <v>18</v>
       </c>
-      <c r="H34" s="128">
+      <c r="H34">
         <v>16</v>
       </c>
       <c r="I34"/>
@@ -13332,10 +14638,10 @@
       <c r="F35">
         <v>8</v>
       </c>
-      <c r="G35" s="128">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="H35" s="128">
+      <c r="H35">
         <v>8</v>
       </c>
       <c r="I35"/>
@@ -13355,10 +14661,10 @@
       <c r="F36">
         <v>9</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36" s="128">
+      <c r="H36">
         <v>6</v>
       </c>
       <c r="I36"/>
@@ -13378,10 +14684,10 @@
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="128">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="128">
+      <c r="H37">
         <v>4</v>
       </c>
       <c r="I37"/>
@@ -13401,10 +14707,10 @@
       <c r="F38">
         <v>11</v>
       </c>
-      <c r="G38" s="128">
+      <c r="G38">
         <v>16</v>
       </c>
-      <c r="H38" s="128">
+      <c r="H38">
         <v>16</v>
       </c>
       <c r="I38"/>
@@ -13424,10 +14730,10 @@
       <c r="F39">
         <v>12</v>
       </c>
-      <c r="G39" s="128">
+      <c r="G39">
         <v>16</v>
       </c>
-      <c r="H39" s="128">
+      <c r="H39">
         <v>16</v>
       </c>
       <c r="I39"/>
@@ -13447,8 +14753,8 @@
       <c r="F40">
         <v>13</v>
       </c>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128">
+      <c r="G40"/>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="I40"/>
@@ -13468,8 +14774,8 @@
       <c r="F41">
         <v>14</v>
       </c>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128">
+      <c r="G41"/>
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="I41"/>
@@ -13489,8 +14795,8 @@
       <c r="F42">
         <v>15</v>
       </c>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128">
+      <c r="G42"/>
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="I42"/>
@@ -13510,8 +14816,8 @@
       <c r="F43">
         <v>16</v>
       </c>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128">
+      <c r="G43"/>
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="I43"/>
@@ -13531,8 +14837,8 @@
       <c r="F44">
         <v>17</v>
       </c>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128">
+      <c r="G44"/>
+      <c r="H44">
         <v>0</v>
       </c>
       <c r="I44"/>
@@ -13552,8 +14858,8 @@
       <c r="F45">
         <v>18</v>
       </c>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128">
+      <c r="G45"/>
+      <c r="H45">
         <v>0</v>
       </c>
       <c r="I45"/>
@@ -13573,8 +14879,8 @@
       <c r="F46">
         <v>19</v>
       </c>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128">
+      <c r="G46"/>
+      <c r="H46">
         <v>0</v>
       </c>
       <c r="I46"/>
@@ -13594,8 +14900,8 @@
       <c r="F47">
         <v>20</v>
       </c>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128">
+      <c r="G47"/>
+      <c r="H47">
         <v>0</v>
       </c>
       <c r="I47"/>
@@ -13611,12 +14917,12 @@
     <row r="48" spans="2:19">
       <c r="B48"/>
       <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="128">
+        <v>44</v>
+      </c>
+      <c r="G48">
         <v>133</v>
       </c>
-      <c r="H48" s="128">
+      <c r="H48">
         <v>133.1</v>
       </c>
     </row>
@@ -13638,10 +14944,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
         <v>43</v>
-      </c>
-      <c r="H53" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:37">
@@ -13649,10 +14955,10 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" s="128">
+      <c r="G54">
         <v>47</v>
       </c>
-      <c r="H54" s="128">
+      <c r="H54">
         <v>48.1</v>
       </c>
     </row>
@@ -13661,10 +14967,10 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" s="128">
+      <c r="G55">
         <v>50</v>
       </c>
-      <c r="H55" s="128">
+      <c r="H55">
         <v>49</v>
       </c>
     </row>
@@ -13674,10 +14980,10 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" s="128">
+      <c r="G56">
         <v>36</v>
       </c>
-      <c r="H56" s="128">
+      <c r="H56">
         <v>36</v>
       </c>
     </row>
@@ -13686,20 +14992,19 @@
       <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128">
+      <c r="H57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:37">
       <c r="B58"/>
       <c r="F58" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="128">
+        <v>44</v>
+      </c>
+      <c r="G58">
         <v>133</v>
       </c>
-      <c r="H58" s="128">
+      <c r="H58">
         <v>133.1</v>
       </c>
     </row>
@@ -13714,1185 +15019,1185 @@
     </row>
     <row r="62" spans="2:37">
       <c r="B62"/>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E62" s="98" t="s">
+      <c r="E62" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="112" t="s">
+      <c r="F62" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="113" t="s">
+      <c r="G62" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I62" s="113" t="s">
+      <c r="J62" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="J62" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="113" t="s">
+      <c r="L62" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="L62" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="113" t="s">
+      <c r="N62" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="N62" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="O62" s="113" t="s">
+      <c r="P62" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="P62" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="113" t="s">
+      <c r="R62" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="S62" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="R62" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="S62" s="113" t="s">
+      <c r="T62" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="U62" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="T62" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="U62" s="113" t="s">
+      <c r="V62" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="W62" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="V62" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="W62" s="113" t="s">
+      <c r="X62" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y62" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="X62" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y62" s="113" t="s">
+      <c r="Z62" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA62" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="Z62" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA62" s="113" t="s">
+      <c r="AB62" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC62" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="AB62" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC62" s="113" t="s">
+      <c r="AD62" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE62" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE62" s="113" t="s">
+      <c r="AF62" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG62" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG62" s="113" t="s">
+      <c r="AH62" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI62" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="AH62" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI62" s="113" t="s">
+      <c r="AJ62" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK62" s="126" t="s">
         <v>60</v>
-      </c>
-      <c r="AJ62" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK62" s="127" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:37">
       <c r="B63"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="101" t="s">
+      <c r="C63" s="110"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="H63" s="101" t="s">
+      <c r="H63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="I63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="101" t="s">
+      <c r="J63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="K63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="L63" s="101" t="s">
+      <c r="L63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="M63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="N63" s="101" t="s">
+      <c r="N63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="O63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="O63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="P63" s="101" t="s">
+      <c r="P63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="Q63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="R63" s="101" t="s">
+      <c r="R63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="S63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="S63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="T63" s="101" t="s">
+      <c r="T63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="U63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="U63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="V63" s="101" t="s">
+      <c r="V63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="W63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="W63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="X63" s="101" t="s">
+      <c r="X63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="Y63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z63" s="101" t="s">
+      <c r="Z63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AA63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB63" s="101" t="s">
+      <c r="AB63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AC63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD63" s="101" t="s">
+      <c r="AD63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF63" s="101" t="s">
+      <c r="AF63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AG63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH63" s="101" t="s">
+      <c r="AH63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI63" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="AI63" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ63" s="101" t="s">
+      <c r="AJ63" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK63" s="94" t="s">
         <v>62</v>
-      </c>
-      <c r="AK63" s="95" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:37" ht="27.6">
       <c r="B64"/>
-      <c r="C64" s="115">
+      <c r="C64" s="114">
         <v>0</v>
       </c>
-      <c r="D64" s="99">
+      <c r="D64" s="98">
         <v>1</v>
       </c>
-      <c r="E64" s="100" t="s">
+      <c r="E64" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="96">
+      <c r="F64" s="95">
         <v>8.4</v>
       </c>
-      <c r="G64" s="95">
+      <c r="G64" s="94">
         <v>10</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="101">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I64" s="95">
+      <c r="I64" s="94">
         <v>8</v>
       </c>
-      <c r="J64" s="102">
+      <c r="J64" s="101">
         <v>0</v>
       </c>
-      <c r="K64" s="95"/>
-      <c r="L64" s="102">
+      <c r="K64" s="94"/>
+      <c r="L64" s="101">
         <v>0</v>
       </c>
-      <c r="M64" s="95"/>
-      <c r="N64" s="102">
+      <c r="M64" s="94"/>
+      <c r="N64" s="101">
         <v>0</v>
       </c>
-      <c r="O64" s="95"/>
-      <c r="P64" s="102">
+      <c r="O64" s="94"/>
+      <c r="P64" s="101">
         <v>0</v>
       </c>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="102">
+      <c r="Q64" s="94"/>
+      <c r="R64" s="101">
         <v>0</v>
       </c>
-      <c r="S64" s="95"/>
-      <c r="T64" s="102">
+      <c r="S64" s="94"/>
+      <c r="T64" s="101">
         <v>0</v>
       </c>
-      <c r="U64" s="95"/>
-      <c r="V64" s="102">
+      <c r="U64" s="94"/>
+      <c r="V64" s="101">
         <v>0</v>
       </c>
-      <c r="W64" s="95"/>
-      <c r="X64" s="102">
+      <c r="W64" s="94"/>
+      <c r="X64" s="101">
         <v>0</v>
       </c>
-      <c r="Y64" s="95"/>
-      <c r="Z64" s="102">
+      <c r="Y64" s="94"/>
+      <c r="Z64" s="101">
         <v>0</v>
       </c>
-      <c r="AA64" s="95"/>
-      <c r="AB64" s="102">
+      <c r="AA64" s="94"/>
+      <c r="AB64" s="101">
         <v>0</v>
       </c>
-      <c r="AC64" s="95"/>
-      <c r="AD64" s="102">
+      <c r="AC64" s="94"/>
+      <c r="AD64" s="101">
         <v>0</v>
       </c>
-      <c r="AE64" s="95"/>
-      <c r="AF64" s="102">
+      <c r="AE64" s="94"/>
+      <c r="AF64" s="101">
         <v>0</v>
       </c>
-      <c r="AG64" s="95"/>
-      <c r="AH64" s="102">
+      <c r="AG64" s="94"/>
+      <c r="AH64" s="101">
         <v>0</v>
       </c>
-      <c r="AI64" s="95"/>
-      <c r="AJ64" s="102">
+      <c r="AI64" s="94"/>
+      <c r="AJ64" s="101">
         <v>0</v>
       </c>
-      <c r="AK64" s="95"/>
+      <c r="AK64" s="94"/>
     </row>
     <row r="65" spans="2:37" ht="55.2">
       <c r="B65"/>
-      <c r="C65" s="116">
+      <c r="C65" s="115">
         <v>0</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>2</v>
       </c>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="70">
         <v>7</v>
       </c>
-      <c r="G65" s="95">
+      <c r="G65" s="94">
         <v>9</v>
       </c>
-      <c r="H65" s="103">
+      <c r="H65" s="102">
         <v>6.4</v>
       </c>
-      <c r="I65" s="95">
+      <c r="I65" s="94">
         <v>6</v>
       </c>
-      <c r="J65" s="103"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="95"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="103"/>
-      <c r="S65" s="95"/>
-      <c r="T65" s="103"/>
-      <c r="U65" s="95"/>
-      <c r="V65" s="103"/>
-      <c r="W65" s="95"/>
-      <c r="X65" s="103"/>
-      <c r="Y65" s="95"/>
-      <c r="Z65" s="103"/>
-      <c r="AA65" s="95"/>
-      <c r="AB65" s="103"/>
-      <c r="AC65" s="95"/>
-      <c r="AD65" s="103"/>
-      <c r="AE65" s="95"/>
-      <c r="AF65" s="103"/>
-      <c r="AG65" s="95"/>
-      <c r="AH65" s="103"/>
-      <c r="AI65" s="95"/>
-      <c r="AJ65" s="103"/>
-      <c r="AK65" s="95"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="102"/>
+      <c r="U65" s="94"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="102"/>
+      <c r="Y65" s="94"/>
+      <c r="Z65" s="102"/>
+      <c r="AA65" s="94"/>
+      <c r="AB65" s="102"/>
+      <c r="AC65" s="94"/>
+      <c r="AD65" s="102"/>
+      <c r="AE65" s="94"/>
+      <c r="AF65" s="102"/>
+      <c r="AG65" s="94"/>
+      <c r="AH65" s="102"/>
+      <c r="AI65" s="94"/>
+      <c r="AJ65" s="102"/>
+      <c r="AK65" s="94"/>
     </row>
     <row r="66" spans="2:37" ht="55.2">
       <c r="B66"/>
-      <c r="C66" s="116">
+      <c r="C66" s="115">
         <v>0</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>3</v>
       </c>
-      <c r="E66" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="71">
+      <c r="E66" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="70">
         <v>4</v>
       </c>
-      <c r="G66" s="95">
+      <c r="G66" s="94">
         <v>4</v>
       </c>
-      <c r="H66" s="103">
+      <c r="H66" s="102">
         <v>5</v>
       </c>
-      <c r="I66" s="95">
+      <c r="I66" s="94">
         <v>4</v>
       </c>
-      <c r="J66" s="103"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="103"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="103"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="103"/>
-      <c r="U66" s="95"/>
-      <c r="V66" s="103"/>
-      <c r="W66" s="95"/>
-      <c r="X66" s="103"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="103"/>
-      <c r="AA66" s="95"/>
-      <c r="AB66" s="103"/>
-      <c r="AC66" s="95"/>
-      <c r="AD66" s="103"/>
-      <c r="AE66" s="95"/>
-      <c r="AF66" s="103"/>
-      <c r="AG66" s="95"/>
-      <c r="AH66" s="103"/>
-      <c r="AI66" s="95"/>
-      <c r="AJ66" s="103"/>
-      <c r="AK66" s="95"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="102"/>
+      <c r="M66" s="94"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="102"/>
+      <c r="U66" s="94"/>
+      <c r="V66" s="102"/>
+      <c r="W66" s="94"/>
+      <c r="X66" s="102"/>
+      <c r="Y66" s="94"/>
+      <c r="Z66" s="102"/>
+      <c r="AA66" s="94"/>
+      <c r="AB66" s="102"/>
+      <c r="AC66" s="94"/>
+      <c r="AD66" s="102"/>
+      <c r="AE66" s="94"/>
+      <c r="AF66" s="102"/>
+      <c r="AG66" s="94"/>
+      <c r="AH66" s="102"/>
+      <c r="AI66" s="94"/>
+      <c r="AJ66" s="102"/>
+      <c r="AK66" s="94"/>
     </row>
     <row r="67" spans="2:37" ht="27.6">
       <c r="B67"/>
-      <c r="C67" s="116">
+      <c r="C67" s="115">
         <v>0</v>
       </c>
-      <c r="D67" s="80">
+      <c r="D67" s="79">
         <v>4</v>
       </c>
-      <c r="E67" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="71">
+      <c r="E67" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="70">
         <v>0</v>
       </c>
-      <c r="G67" s="95"/>
-      <c r="H67" s="103">
+      <c r="G67" s="94"/>
+      <c r="H67" s="102">
         <v>0</v>
       </c>
-      <c r="I67" s="95"/>
-      <c r="J67" s="103">
+      <c r="I67" s="94"/>
+      <c r="J67" s="102">
         <v>3</v>
       </c>
-      <c r="K67" s="95">
+      <c r="K67" s="94">
         <v>2</v>
       </c>
-      <c r="L67" s="103"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="95"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="103"/>
-      <c r="S67" s="95"/>
-      <c r="T67" s="103"/>
-      <c r="U67" s="95"/>
-      <c r="V67" s="103"/>
-      <c r="W67" s="95"/>
-      <c r="X67" s="103"/>
-      <c r="Y67" s="95"/>
-      <c r="Z67" s="103"/>
-      <c r="AA67" s="95"/>
-      <c r="AB67" s="103"/>
-      <c r="AC67" s="95"/>
-      <c r="AD67" s="103"/>
-      <c r="AE67" s="95"/>
-      <c r="AF67" s="103"/>
-      <c r="AG67" s="95"/>
-      <c r="AH67" s="103"/>
-      <c r="AI67" s="95"/>
-      <c r="AJ67" s="103"/>
-      <c r="AK67" s="95"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="94"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="94"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="94"/>
+      <c r="Z67" s="102"/>
+      <c r="AA67" s="94"/>
+      <c r="AB67" s="102"/>
+      <c r="AC67" s="94"/>
+      <c r="AD67" s="102"/>
+      <c r="AE67" s="94"/>
+      <c r="AF67" s="102"/>
+      <c r="AG67" s="94"/>
+      <c r="AH67" s="102"/>
+      <c r="AI67" s="94"/>
+      <c r="AJ67" s="102"/>
+      <c r="AK67" s="94"/>
     </row>
     <row r="68" spans="2:37" ht="27.6">
       <c r="B68"/>
-      <c r="C68" s="116">
+      <c r="C68" s="115">
         <v>0</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>5</v>
       </c>
-      <c r="E68" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="71">
+      <c r="E68" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="70">
         <v>0</v>
       </c>
-      <c r="G68" s="95"/>
-      <c r="H68" s="103">
+      <c r="G68" s="94"/>
+      <c r="H68" s="102">
         <v>0</v>
       </c>
-      <c r="I68" s="95"/>
-      <c r="J68" s="103">
+      <c r="I68" s="94"/>
+      <c r="J68" s="102">
         <v>6</v>
       </c>
-      <c r="K68" s="95">
+      <c r="K68" s="94">
         <v>4</v>
       </c>
-      <c r="L68" s="103"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="95"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="103"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="103"/>
-      <c r="U68" s="95"/>
-      <c r="V68" s="103"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="103"/>
-      <c r="Y68" s="95"/>
-      <c r="Z68" s="103"/>
-      <c r="AA68" s="95"/>
-      <c r="AB68" s="103"/>
-      <c r="AC68" s="95"/>
-      <c r="AD68" s="103"/>
-      <c r="AE68" s="95"/>
-      <c r="AF68" s="103"/>
-      <c r="AG68" s="95"/>
-      <c r="AH68" s="103"/>
-      <c r="AI68" s="95"/>
-      <c r="AJ68" s="103"/>
-      <c r="AK68" s="95"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="102"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="102"/>
+      <c r="U68" s="94"/>
+      <c r="V68" s="102"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="102"/>
+      <c r="Y68" s="94"/>
+      <c r="Z68" s="102"/>
+      <c r="AA68" s="94"/>
+      <c r="AB68" s="102"/>
+      <c r="AC68" s="94"/>
+      <c r="AD68" s="102"/>
+      <c r="AE68" s="94"/>
+      <c r="AF68" s="102"/>
+      <c r="AG68" s="94"/>
+      <c r="AH68" s="102"/>
+      <c r="AI68" s="94"/>
+      <c r="AJ68" s="102"/>
+      <c r="AK68" s="94"/>
     </row>
     <row r="69" spans="2:37" ht="27.6">
       <c r="B69"/>
-      <c r="C69" s="117">
+      <c r="C69" s="116">
         <v>1</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="80">
         <v>6</v>
       </c>
-      <c r="E69" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="72"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="104">
+      <c r="E69" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="71"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="103"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="103">
         <v>12.5</v>
       </c>
-      <c r="K69" s="95">
+      <c r="K69" s="94">
         <v>14</v>
       </c>
-      <c r="L69" s="104">
+      <c r="L69" s="103">
         <v>6.5</v>
       </c>
-      <c r="M69" s="95">
+      <c r="M69" s="94">
         <v>6</v>
       </c>
-      <c r="N69" s="104"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="104"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="104"/>
-      <c r="S69" s="95"/>
-      <c r="T69" s="104"/>
-      <c r="U69" s="95"/>
-      <c r="V69" s="104"/>
-      <c r="W69" s="95"/>
-      <c r="X69" s="104"/>
-      <c r="Y69" s="95"/>
-      <c r="Z69" s="104"/>
-      <c r="AA69" s="95"/>
-      <c r="AB69" s="104"/>
-      <c r="AC69" s="95"/>
-      <c r="AD69" s="104"/>
-      <c r="AE69" s="95"/>
-      <c r="AF69" s="104"/>
-      <c r="AG69" s="95"/>
-      <c r="AH69" s="104"/>
-      <c r="AI69" s="95"/>
-      <c r="AJ69" s="104"/>
-      <c r="AK69" s="95"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="94"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="103"/>
+      <c r="U69" s="94"/>
+      <c r="V69" s="103"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="103"/>
+      <c r="Y69" s="94"/>
+      <c r="Z69" s="103"/>
+      <c r="AA69" s="94"/>
+      <c r="AB69" s="103"/>
+      <c r="AC69" s="94"/>
+      <c r="AD69" s="103"/>
+      <c r="AE69" s="94"/>
+      <c r="AF69" s="103"/>
+      <c r="AG69" s="94"/>
+      <c r="AH69" s="103"/>
+      <c r="AI69" s="94"/>
+      <c r="AJ69" s="103"/>
+      <c r="AK69" s="94"/>
     </row>
     <row r="70" spans="2:37" ht="41.4">
       <c r="B70"/>
-      <c r="C70" s="118">
+      <c r="C70" s="117">
         <v>1</v>
       </c>
-      <c r="D70" s="81">
+      <c r="D70" s="80">
         <v>7</v>
       </c>
-      <c r="E70" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="73"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="105">
+      <c r="E70" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="72"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="104"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="104">
         <v>6</v>
       </c>
-      <c r="M70" s="95">
+      <c r="M70" s="94">
         <v>8</v>
       </c>
-      <c r="N70" s="105">
+      <c r="N70" s="104">
         <v>10</v>
       </c>
-      <c r="O70" s="95">
+      <c r="O70" s="94">
         <v>10</v>
       </c>
-      <c r="P70" s="105"/>
-      <c r="Q70" s="95"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="95"/>
-      <c r="T70" s="105"/>
-      <c r="U70" s="95"/>
-      <c r="V70" s="105"/>
-      <c r="W70" s="95"/>
-      <c r="X70" s="105"/>
-      <c r="Y70" s="95"/>
-      <c r="Z70" s="105"/>
-      <c r="AA70" s="95"/>
-      <c r="AB70" s="105"/>
-      <c r="AC70" s="95"/>
-      <c r="AD70" s="105"/>
-      <c r="AE70" s="95"/>
-      <c r="AF70" s="105"/>
-      <c r="AG70" s="95"/>
-      <c r="AH70" s="105"/>
-      <c r="AI70" s="95"/>
-      <c r="AJ70" s="105"/>
-      <c r="AK70" s="95"/>
+      <c r="P70" s="104"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="104"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="104"/>
+      <c r="U70" s="94"/>
+      <c r="V70" s="104"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="104"/>
+      <c r="Y70" s="94"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="94"/>
+      <c r="AB70" s="104"/>
+      <c r="AC70" s="94"/>
+      <c r="AD70" s="104"/>
+      <c r="AE70" s="94"/>
+      <c r="AF70" s="104"/>
+      <c r="AG70" s="94"/>
+      <c r="AH70" s="104"/>
+      <c r="AI70" s="94"/>
+      <c r="AJ70" s="104"/>
+      <c r="AK70" s="94"/>
     </row>
     <row r="71" spans="2:37" ht="27.6">
       <c r="B71"/>
-      <c r="C71" s="118">
+      <c r="C71" s="117">
         <v>1</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="83">
         <v>8</v>
       </c>
-      <c r="E71" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="95"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="105">
+      <c r="E71" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="72"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="104"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="104">
         <v>4</v>
       </c>
-      <c r="M71" s="95">
+      <c r="M71" s="94">
         <v>4</v>
       </c>
-      <c r="N71" s="105">
+      <c r="N71" s="104">
         <v>4</v>
       </c>
-      <c r="O71" s="95">
+      <c r="O71" s="94">
         <v>4</v>
       </c>
-      <c r="P71" s="105"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="105"/>
-      <c r="S71" s="95"/>
-      <c r="T71" s="105"/>
-      <c r="U71" s="95"/>
-      <c r="V71" s="105"/>
-      <c r="W71" s="95"/>
-      <c r="X71" s="105"/>
-      <c r="Y71" s="95"/>
-      <c r="Z71" s="105"/>
-      <c r="AA71" s="95"/>
-      <c r="AB71" s="105"/>
-      <c r="AC71" s="95"/>
-      <c r="AD71" s="105"/>
-      <c r="AE71" s="95"/>
-      <c r="AF71" s="105"/>
-      <c r="AG71" s="95"/>
-      <c r="AH71" s="105"/>
-      <c r="AI71" s="95"/>
-      <c r="AJ71" s="105"/>
-      <c r="AK71" s="95"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="104"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="104"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="104"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="104"/>
+      <c r="AA71" s="94"/>
+      <c r="AB71" s="104"/>
+      <c r="AC71" s="94"/>
+      <c r="AD71" s="104"/>
+      <c r="AE71" s="94"/>
+      <c r="AF71" s="104"/>
+      <c r="AG71" s="94"/>
+      <c r="AH71" s="104"/>
+      <c r="AI71" s="94"/>
+      <c r="AJ71" s="104"/>
+      <c r="AK71" s="94"/>
     </row>
     <row r="72" spans="2:37" ht="27.6">
       <c r="B72"/>
-      <c r="C72" s="118">
+      <c r="C72" s="117">
         <v>1</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>9</v>
       </c>
-      <c r="E72" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="105">
+      <c r="E72" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="72"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="104">
         <v>2</v>
       </c>
-      <c r="M72" s="95">
+      <c r="M72" s="94">
         <v>2</v>
       </c>
-      <c r="N72" s="105">
+      <c r="N72" s="104">
         <v>4</v>
       </c>
-      <c r="O72" s="95">
+      <c r="O72" s="94">
         <v>2</v>
       </c>
-      <c r="P72" s="105"/>
-      <c r="Q72" s="95"/>
-      <c r="R72" s="105"/>
-      <c r="S72" s="95"/>
-      <c r="T72" s="105"/>
-      <c r="U72" s="95"/>
-      <c r="V72" s="105"/>
-      <c r="W72" s="95"/>
-      <c r="X72" s="105"/>
-      <c r="Y72" s="95"/>
-      <c r="Z72" s="105"/>
-      <c r="AA72" s="95"/>
-      <c r="AB72" s="105"/>
-      <c r="AC72" s="95"/>
-      <c r="AD72" s="105"/>
-      <c r="AE72" s="95"/>
-      <c r="AF72" s="105"/>
-      <c r="AG72" s="95"/>
-      <c r="AH72" s="105"/>
-      <c r="AI72" s="95"/>
-      <c r="AJ72" s="105"/>
-      <c r="AK72" s="95"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="104"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="104"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="104"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="104"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="104"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="104"/>
+      <c r="AC72" s="94"/>
+      <c r="AD72" s="104"/>
+      <c r="AE72" s="94"/>
+      <c r="AF72" s="104"/>
+      <c r="AG72" s="94"/>
+      <c r="AH72" s="104"/>
+      <c r="AI72" s="94"/>
+      <c r="AJ72" s="104"/>
+      <c r="AK72" s="94"/>
     </row>
     <row r="73" spans="2:37" ht="27.6">
       <c r="B73"/>
-      <c r="C73" s="119">
+      <c r="C73" s="118">
         <v>2</v>
       </c>
-      <c r="D73" s="85">
+      <c r="D73" s="84">
         <v>10</v>
       </c>
-      <c r="E73" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="74"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="95"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="106"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="106"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="106"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="106"/>
-      <c r="U73" s="95"/>
-      <c r="V73" s="106"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="106"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="106"/>
-      <c r="AA73" s="95"/>
-      <c r="AB73" s="106"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="106"/>
-      <c r="AE73" s="95"/>
-      <c r="AF73" s="106"/>
-      <c r="AG73" s="95"/>
-      <c r="AH73" s="106"/>
-      <c r="AI73" s="95"/>
-      <c r="AJ73" s="106"/>
-      <c r="AK73" s="95"/>
+      <c r="E73" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="73"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="105"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="105"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="105"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="105"/>
+      <c r="U73" s="94"/>
+      <c r="V73" s="105"/>
+      <c r="W73" s="94"/>
+      <c r="X73" s="105"/>
+      <c r="Y73" s="94"/>
+      <c r="Z73" s="105"/>
+      <c r="AA73" s="94"/>
+      <c r="AB73" s="105"/>
+      <c r="AC73" s="94"/>
+      <c r="AD73" s="105"/>
+      <c r="AE73" s="94"/>
+      <c r="AF73" s="105"/>
+      <c r="AG73" s="94"/>
+      <c r="AH73" s="105"/>
+      <c r="AI73" s="94"/>
+      <c r="AJ73" s="105"/>
+      <c r="AK73" s="94"/>
     </row>
     <row r="74" spans="2:37" ht="41.4">
       <c r="B74"/>
-      <c r="C74" s="120">
+      <c r="C74" s="119">
         <v>2</v>
       </c>
-      <c r="D74" s="87">
+      <c r="D74" s="86">
         <v>11</v>
       </c>
-      <c r="E74" s="88" t="s">
+      <c r="E74" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="F74" s="75"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="107"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="107"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="107"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="107"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="107"/>
-      <c r="S74" s="95"/>
-      <c r="T74" s="107"/>
-      <c r="U74" s="95"/>
-      <c r="V74" s="107"/>
-      <c r="W74" s="95"/>
-      <c r="X74" s="107"/>
-      <c r="Y74" s="95"/>
-      <c r="Z74" s="107"/>
-      <c r="AA74" s="95"/>
-      <c r="AB74" s="107"/>
-      <c r="AC74" s="95"/>
-      <c r="AD74" s="107"/>
-      <c r="AE74" s="95"/>
-      <c r="AF74" s="107"/>
-      <c r="AG74" s="95"/>
-      <c r="AH74" s="107"/>
-      <c r="AI74" s="95"/>
-      <c r="AJ74" s="107"/>
-      <c r="AK74" s="95"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="106"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="106"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="106"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="106"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="106"/>
+      <c r="U74" s="94"/>
+      <c r="V74" s="106"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="106"/>
+      <c r="Y74" s="94"/>
+      <c r="Z74" s="106"/>
+      <c r="AA74" s="94"/>
+      <c r="AB74" s="106"/>
+      <c r="AC74" s="94"/>
+      <c r="AD74" s="106"/>
+      <c r="AE74" s="94"/>
+      <c r="AF74" s="106"/>
+      <c r="AG74" s="94"/>
+      <c r="AH74" s="106"/>
+      <c r="AI74" s="94"/>
+      <c r="AJ74" s="106"/>
+      <c r="AK74" s="94"/>
     </row>
     <row r="75" spans="2:37" ht="41.4">
       <c r="B75"/>
-      <c r="C75" s="120">
+      <c r="C75" s="119">
         <v>2</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="24">
         <v>12</v>
       </c>
-      <c r="E75" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="75"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="107"/>
-      <c r="K75" s="95"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="107"/>
-      <c r="O75" s="95"/>
-      <c r="P75" s="107"/>
-      <c r="Q75" s="95"/>
-      <c r="R75" s="107"/>
-      <c r="S75" s="95"/>
-      <c r="T75" s="107"/>
-      <c r="U75" s="95"/>
-      <c r="V75" s="107"/>
-      <c r="W75" s="95"/>
-      <c r="X75" s="107"/>
-      <c r="Y75" s="95"/>
-      <c r="Z75" s="107"/>
-      <c r="AA75" s="95"/>
-      <c r="AB75" s="107"/>
-      <c r="AC75" s="95"/>
-      <c r="AD75" s="107"/>
-      <c r="AE75" s="95"/>
-      <c r="AF75" s="107"/>
-      <c r="AG75" s="95"/>
-      <c r="AH75" s="107"/>
-      <c r="AI75" s="95"/>
-      <c r="AJ75" s="107"/>
-      <c r="AK75" s="95"/>
+      <c r="E75" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="74"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="106"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="106"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="106"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="106"/>
+      <c r="U75" s="94"/>
+      <c r="V75" s="106"/>
+      <c r="W75" s="94"/>
+      <c r="X75" s="106"/>
+      <c r="Y75" s="94"/>
+      <c r="Z75" s="106"/>
+      <c r="AA75" s="94"/>
+      <c r="AB75" s="106"/>
+      <c r="AC75" s="94"/>
+      <c r="AD75" s="106"/>
+      <c r="AE75" s="94"/>
+      <c r="AF75" s="106"/>
+      <c r="AG75" s="94"/>
+      <c r="AH75" s="106"/>
+      <c r="AI75" s="94"/>
+      <c r="AJ75" s="106"/>
+      <c r="AK75" s="94"/>
     </row>
     <row r="76" spans="2:37" ht="27.6">
-      <c r="C76" s="121">
+      <c r="C76" s="120">
         <v>3</v>
       </c>
-      <c r="D76" s="89">
+      <c r="D76" s="88">
         <v>13</v>
       </c>
-      <c r="E76" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="108"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="108"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="95"/>
-      <c r="N76" s="108"/>
-      <c r="O76" s="95"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="95"/>
-      <c r="R76" s="108"/>
-      <c r="S76" s="95"/>
-      <c r="T76" s="108"/>
-      <c r="U76" s="95"/>
-      <c r="V76" s="108"/>
-      <c r="W76" s="95"/>
-      <c r="X76" s="108"/>
-      <c r="Y76" s="95"/>
-      <c r="Z76" s="108"/>
-      <c r="AA76" s="95"/>
-      <c r="AB76" s="108"/>
-      <c r="AC76" s="95"/>
-      <c r="AD76" s="108"/>
-      <c r="AE76" s="95"/>
-      <c r="AF76" s="108"/>
-      <c r="AG76" s="95"/>
-      <c r="AH76" s="108"/>
-      <c r="AI76" s="95"/>
-      <c r="AJ76" s="108"/>
-      <c r="AK76" s="95"/>
+      <c r="E76" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="75"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="107"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="107"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="107"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="107"/>
+      <c r="U76" s="94"/>
+      <c r="V76" s="107"/>
+      <c r="W76" s="94"/>
+      <c r="X76" s="107"/>
+      <c r="Y76" s="94"/>
+      <c r="Z76" s="107"/>
+      <c r="AA76" s="94"/>
+      <c r="AB76" s="107"/>
+      <c r="AC76" s="94"/>
+      <c r="AD76" s="107"/>
+      <c r="AE76" s="94"/>
+      <c r="AF76" s="107"/>
+      <c r="AG76" s="94"/>
+      <c r="AH76" s="107"/>
+      <c r="AI76" s="94"/>
+      <c r="AJ76" s="107"/>
+      <c r="AK76" s="94"/>
     </row>
     <row r="77" spans="2:37" ht="27.6">
-      <c r="C77" s="122">
+      <c r="C77" s="121">
         <v>3</v>
       </c>
-      <c r="D77" s="89">
+      <c r="D77" s="88">
         <v>14</v>
       </c>
-      <c r="E77" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="77"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="95"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="109"/>
-      <c r="O77" s="95"/>
-      <c r="P77" s="109"/>
-      <c r="Q77" s="95"/>
-      <c r="R77" s="109"/>
-      <c r="S77" s="95"/>
-      <c r="T77" s="109"/>
-      <c r="U77" s="95"/>
-      <c r="V77" s="109"/>
-      <c r="W77" s="95"/>
-      <c r="X77" s="109"/>
-      <c r="Y77" s="95"/>
-      <c r="Z77" s="109"/>
-      <c r="AA77" s="95"/>
-      <c r="AB77" s="109"/>
-      <c r="AC77" s="95"/>
-      <c r="AD77" s="109"/>
-      <c r="AE77" s="95"/>
-      <c r="AF77" s="109"/>
-      <c r="AG77" s="95"/>
-      <c r="AH77" s="109"/>
-      <c r="AI77" s="95"/>
-      <c r="AJ77" s="109"/>
-      <c r="AK77" s="95"/>
+      <c r="E77" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="76"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="94"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="94"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="108"/>
+      <c r="S77" s="94"/>
+      <c r="T77" s="108"/>
+      <c r="U77" s="94"/>
+      <c r="V77" s="108"/>
+      <c r="W77" s="94"/>
+      <c r="X77" s="108"/>
+      <c r="Y77" s="94"/>
+      <c r="Z77" s="108"/>
+      <c r="AA77" s="94"/>
+      <c r="AB77" s="108"/>
+      <c r="AC77" s="94"/>
+      <c r="AD77" s="108"/>
+      <c r="AE77" s="94"/>
+      <c r="AF77" s="108"/>
+      <c r="AG77" s="94"/>
+      <c r="AH77" s="108"/>
+      <c r="AI77" s="94"/>
+      <c r="AJ77" s="108"/>
+      <c r="AK77" s="94"/>
     </row>
     <row r="78" spans="2:37" ht="27.6">
-      <c r="C78" s="122">
+      <c r="C78" s="121">
         <v>3</v>
       </c>
-      <c r="D78" s="89">
+      <c r="D78" s="88">
         <v>15</v>
       </c>
-      <c r="E78" s="91" t="s">
+      <c r="E78" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="76"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="94"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="94"/>
+      <c r="N78" s="108"/>
+      <c r="O78" s="94"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="108"/>
+      <c r="S78" s="94"/>
+      <c r="T78" s="108"/>
+      <c r="U78" s="94"/>
+      <c r="V78" s="108"/>
+      <c r="W78" s="94"/>
+      <c r="X78" s="108"/>
+      <c r="Y78" s="94"/>
+      <c r="Z78" s="108"/>
+      <c r="AA78" s="94"/>
+      <c r="AB78" s="108"/>
+      <c r="AC78" s="94"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="94"/>
+      <c r="AF78" s="108"/>
+      <c r="AG78" s="94"/>
+      <c r="AH78" s="108"/>
+      <c r="AI78" s="94"/>
+      <c r="AJ78" s="108"/>
+      <c r="AK78" s="94"/>
+    </row>
+    <row r="79" spans="2:37" ht="41.4">
+      <c r="C79" s="121">
+        <v>3</v>
+      </c>
+      <c r="D79" s="88">
+        <v>16</v>
+      </c>
+      <c r="E79" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="95"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="95"/>
-      <c r="P78" s="109"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="109"/>
-      <c r="S78" s="95"/>
-      <c r="T78" s="109"/>
-      <c r="U78" s="95"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="95"/>
-      <c r="X78" s="109"/>
-      <c r="Y78" s="95"/>
-      <c r="Z78" s="109"/>
-      <c r="AA78" s="95"/>
-      <c r="AB78" s="109"/>
-      <c r="AC78" s="95"/>
-      <c r="AD78" s="109"/>
-      <c r="AE78" s="95"/>
-      <c r="AF78" s="109"/>
-      <c r="AG78" s="95"/>
-      <c r="AH78" s="109"/>
-      <c r="AI78" s="95"/>
-      <c r="AJ78" s="109"/>
-      <c r="AK78" s="95"/>
-    </row>
-    <row r="79" spans="2:37" ht="27.6">
-      <c r="C79" s="122">
-        <v>3</v>
-      </c>
-      <c r="D79" s="89">
-        <v>16</v>
-      </c>
-      <c r="E79" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="109"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="109"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="109"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="109"/>
-      <c r="O79" s="95"/>
-      <c r="P79" s="109"/>
-      <c r="Q79" s="95"/>
-      <c r="R79" s="109"/>
-      <c r="S79" s="95"/>
-      <c r="T79" s="109"/>
-      <c r="U79" s="95"/>
-      <c r="V79" s="109"/>
-      <c r="W79" s="95"/>
-      <c r="X79" s="109"/>
-      <c r="Y79" s="95"/>
-      <c r="Z79" s="109"/>
-      <c r="AA79" s="95"/>
-      <c r="AB79" s="109"/>
-      <c r="AC79" s="95"/>
-      <c r="AD79" s="109"/>
-      <c r="AE79" s="95"/>
-      <c r="AF79" s="109"/>
-      <c r="AG79" s="95"/>
-      <c r="AH79" s="109"/>
-      <c r="AI79" s="95"/>
-      <c r="AJ79" s="109"/>
-      <c r="AK79" s="95"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="94"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="94"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="94"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="94"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="108"/>
+      <c r="S79" s="94"/>
+      <c r="T79" s="108"/>
+      <c r="U79" s="94"/>
+      <c r="V79" s="108"/>
+      <c r="W79" s="94"/>
+      <c r="X79" s="108"/>
+      <c r="Y79" s="94"/>
+      <c r="Z79" s="108"/>
+      <c r="AA79" s="94"/>
+      <c r="AB79" s="108"/>
+      <c r="AC79" s="94"/>
+      <c r="AD79" s="108"/>
+      <c r="AE79" s="94"/>
+      <c r="AF79" s="108"/>
+      <c r="AG79" s="94"/>
+      <c r="AH79" s="108"/>
+      <c r="AI79" s="94"/>
+      <c r="AJ79" s="108"/>
+      <c r="AK79" s="94"/>
     </row>
     <row r="80" spans="2:37" ht="27.6">
-      <c r="C80" s="122">
+      <c r="C80" s="121">
         <v>3</v>
       </c>
-      <c r="D80" s="92">
+      <c r="D80" s="91">
         <v>17</v>
       </c>
-      <c r="E80" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="109"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="109"/>
-      <c r="K80" s="95"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="95"/>
-      <c r="N80" s="109"/>
-      <c r="O80" s="95"/>
-      <c r="P80" s="109"/>
-      <c r="Q80" s="95"/>
-      <c r="R80" s="109"/>
-      <c r="S80" s="95"/>
-      <c r="T80" s="109"/>
-      <c r="U80" s="95"/>
-      <c r="V80" s="109"/>
-      <c r="W80" s="95"/>
-      <c r="X80" s="109"/>
-      <c r="Y80" s="95"/>
-      <c r="Z80" s="109"/>
-      <c r="AA80" s="95"/>
-      <c r="AB80" s="109"/>
-      <c r="AC80" s="95"/>
-      <c r="AD80" s="109"/>
-      <c r="AE80" s="95"/>
-      <c r="AF80" s="109"/>
-      <c r="AG80" s="95"/>
-      <c r="AH80" s="109"/>
-      <c r="AI80" s="95"/>
-      <c r="AJ80" s="109"/>
-      <c r="AK80" s="95"/>
+      <c r="E80" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="76"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="94"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="94"/>
+      <c r="N80" s="108"/>
+      <c r="O80" s="94"/>
+      <c r="P80" s="108"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="108"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="108"/>
+      <c r="U80" s="94"/>
+      <c r="V80" s="108"/>
+      <c r="W80" s="94"/>
+      <c r="X80" s="108"/>
+      <c r="Y80" s="94"/>
+      <c r="Z80" s="108"/>
+      <c r="AA80" s="94"/>
+      <c r="AB80" s="108"/>
+      <c r="AC80" s="94"/>
+      <c r="AD80" s="108"/>
+      <c r="AE80" s="94"/>
+      <c r="AF80" s="108"/>
+      <c r="AG80" s="94"/>
+      <c r="AH80" s="108"/>
+      <c r="AI80" s="94"/>
+      <c r="AJ80" s="108"/>
+      <c r="AK80" s="94"/>
     </row>
     <row r="81" spans="3:37" ht="27.6">
-      <c r="C81" s="122">
+      <c r="C81" s="121">
         <v>3</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <v>18</v>
       </c>
-      <c r="E81" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="109"/>
-      <c r="O81" s="95"/>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="95"/>
-      <c r="R81" s="109"/>
-      <c r="S81" s="95"/>
-      <c r="T81" s="109"/>
-      <c r="U81" s="95"/>
-      <c r="V81" s="109"/>
-      <c r="W81" s="95"/>
-      <c r="X81" s="109"/>
-      <c r="Y81" s="95"/>
-      <c r="Z81" s="109"/>
-      <c r="AA81" s="95"/>
-      <c r="AB81" s="109"/>
-      <c r="AC81" s="95"/>
-      <c r="AD81" s="109"/>
-      <c r="AE81" s="95"/>
-      <c r="AF81" s="109"/>
-      <c r="AG81" s="95"/>
-      <c r="AH81" s="109"/>
-      <c r="AI81" s="95"/>
-      <c r="AJ81" s="109"/>
-      <c r="AK81" s="95"/>
+      <c r="E81" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="76"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="94"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="94"/>
+      <c r="N81" s="108"/>
+      <c r="O81" s="94"/>
+      <c r="P81" s="108"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="108"/>
+      <c r="S81" s="94"/>
+      <c r="T81" s="108"/>
+      <c r="U81" s="94"/>
+      <c r="V81" s="108"/>
+      <c r="W81" s="94"/>
+      <c r="X81" s="108"/>
+      <c r="Y81" s="94"/>
+      <c r="Z81" s="108"/>
+      <c r="AA81" s="94"/>
+      <c r="AB81" s="108"/>
+      <c r="AC81" s="94"/>
+      <c r="AD81" s="108"/>
+      <c r="AE81" s="94"/>
+      <c r="AF81" s="108"/>
+      <c r="AG81" s="94"/>
+      <c r="AH81" s="108"/>
+      <c r="AI81" s="94"/>
+      <c r="AJ81" s="108"/>
+      <c r="AK81" s="94"/>
     </row>
     <row r="82" spans="3:37" ht="27.6">
-      <c r="C82" s="123">
+      <c r="C82" s="122">
         <v>3</v>
       </c>
-      <c r="D82" s="93">
+      <c r="D82" s="92">
         <v>19</v>
       </c>
-      <c r="E82" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="78"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="110"/>
-      <c r="K82" s="95"/>
-      <c r="L82" s="110"/>
-      <c r="M82" s="95"/>
-      <c r="N82" s="110"/>
-      <c r="O82" s="95"/>
-      <c r="P82" s="110"/>
-      <c r="Q82" s="95"/>
-      <c r="R82" s="110"/>
-      <c r="S82" s="95"/>
-      <c r="T82" s="110"/>
-      <c r="U82" s="95"/>
-      <c r="V82" s="110"/>
-      <c r="W82" s="95"/>
-      <c r="X82" s="110"/>
-      <c r="Y82" s="95"/>
-      <c r="Z82" s="110"/>
-      <c r="AA82" s="95"/>
-      <c r="AB82" s="110"/>
-      <c r="AC82" s="95"/>
-      <c r="AD82" s="110"/>
-      <c r="AE82" s="95"/>
-      <c r="AF82" s="110"/>
-      <c r="AG82" s="95"/>
-      <c r="AH82" s="110"/>
-      <c r="AI82" s="95"/>
-      <c r="AJ82" s="110"/>
-      <c r="AK82" s="95"/>
+      <c r="E82" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="77"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="94"/>
+      <c r="J82" s="109"/>
+      <c r="K82" s="94"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="109"/>
+      <c r="O82" s="94"/>
+      <c r="P82" s="109"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="109"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="109"/>
+      <c r="U82" s="94"/>
+      <c r="V82" s="109"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="109"/>
+      <c r="Y82" s="94"/>
+      <c r="Z82" s="109"/>
+      <c r="AA82" s="94"/>
+      <c r="AB82" s="109"/>
+      <c r="AC82" s="94"/>
+      <c r="AD82" s="109"/>
+      <c r="AE82" s="94"/>
+      <c r="AF82" s="109"/>
+      <c r="AG82" s="94"/>
+      <c r="AH82" s="109"/>
+      <c r="AI82" s="94"/>
+      <c r="AJ82" s="109"/>
+      <c r="AK82" s="94"/>
     </row>
     <row r="83" spans="3:37" ht="41.4">
       <c r="C83" s="12">
         <v>3</v>
       </c>
-      <c r="D83" s="124">
+      <c r="D83" s="123">
         <v>20</v>
       </c>
-      <c r="E83" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="68"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="126"/>
-      <c r="I83" s="125"/>
-      <c r="J83" s="126"/>
-      <c r="K83" s="125"/>
-      <c r="L83" s="126"/>
-      <c r="M83" s="125"/>
-      <c r="N83" s="126"/>
-      <c r="O83" s="125"/>
-      <c r="P83" s="126"/>
-      <c r="Q83" s="125"/>
-      <c r="R83" s="126"/>
-      <c r="S83" s="125"/>
-      <c r="T83" s="126"/>
-      <c r="U83" s="125"/>
-      <c r="V83" s="126"/>
-      <c r="W83" s="125"/>
-      <c r="X83" s="126"/>
-      <c r="Y83" s="125"/>
-      <c r="Z83" s="126"/>
-      <c r="AA83" s="125"/>
-      <c r="AB83" s="126"/>
-      <c r="AC83" s="125"/>
-      <c r="AD83" s="126"/>
-      <c r="AE83" s="125"/>
-      <c r="AF83" s="126"/>
-      <c r="AG83" s="125"/>
-      <c r="AH83" s="126"/>
-      <c r="AI83" s="125"/>
-      <c r="AJ83" s="126"/>
-      <c r="AK83" s="125"/>
+      <c r="E83" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="67"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="124"/>
+      <c r="J83" s="125"/>
+      <c r="K83" s="124"/>
+      <c r="L83" s="125"/>
+      <c r="M83" s="124"/>
+      <c r="N83" s="125"/>
+      <c r="O83" s="124"/>
+      <c r="P83" s="125"/>
+      <c r="Q83" s="124"/>
+      <c r="R83" s="125"/>
+      <c r="S83" s="124"/>
+      <c r="T83" s="125"/>
+      <c r="U83" s="124"/>
+      <c r="V83" s="125"/>
+      <c r="W83" s="124"/>
+      <c r="X83" s="125"/>
+      <c r="Y83" s="124"/>
+      <c r="Z83" s="125"/>
+      <c r="AA83" s="124"/>
+      <c r="AB83" s="125"/>
+      <c r="AC83" s="124"/>
+      <c r="AD83" s="125"/>
+      <c r="AE83" s="124"/>
+      <c r="AF83" s="125"/>
+      <c r="AG83" s="124"/>
+      <c r="AH83" s="125"/>
+      <c r="AI83" s="124"/>
+      <c r="AJ83" s="125"/>
+      <c r="AK83" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14908,13 +16213,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C41AD50-1BE6-46F0-97A7-E106CC3B5798}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
@@ -14922,26 +16227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="131"/>
+      <c r="A2" s="129"/>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="13">
-        <f>SUM(Tabla1[Semana 3])</f>
+        <f>SUM(TablaDeDatos_Tareas!F3:F7)</f>
         <v>19.399999999999999</v>
       </c>
       <c r="D2">
@@ -14950,12 +16255,12 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="131"/>
+      <c r="A3" s="129"/>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" s="13">
-        <f>SUM(Tabla1[Semana 4])</f>
+        <f>SUM(TablaDeDatos_Tareas!G4:G8)</f>
         <v>19.700000000000003</v>
       </c>
       <c r="D3">
@@ -14964,13 +16269,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="131"/>
+      <c r="A4" s="129"/>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <f>SUM(Tabla1[Semana 5])</f>
-        <v>21.5</v>
+        <f>SUM(TablaDeDatos_Tareas!H4:H8)</f>
+        <v>9</v>
       </c>
       <c r="D4">
         <f>SUM(TablaDeDatos_Tareas!K$64:K$83)</f>
@@ -14978,198 +16283,231 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="C5" s="13"/>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="129" t="s">
         <v>69</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <f>SUM(TablaDeDatos_Tareas!H9:H12)</f>
+        <v>12.5</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="129"/>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="13">
         <f>SUM(Tabla1[Semana 6])</f>
         <v>18.5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>SUM(TablaDeDatos_Tareas!M$64:M$83)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="131"/>
-      <c r="B7">
+    <row r="8" spans="1:4">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C8" s="13">
         <f>SUM(Tabla1[Semana 7])</f>
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f>SUM(TablaDeDatos_Tareas!O$64:O$83)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="13"/>
-    </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="129" t="s">
         <v>70</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="129"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
         <f>SUM(Tabla1[Semana 8])</f>
         <v>12</v>
       </c>
-      <c r="D9">
-        <f>SUM(TablaDeDatos_Tareas!K$13:K$14)</f>
+      <c r="D10">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="131"/>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13">
-        <f>SUM(Tabla1[Semana 9])</f>
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <f>SUM(TablaDeDatos_Tareas!L$14:L$15)</f>
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="131"/>
+      <c r="A11" s="129"/>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13">
-        <f>SUM(Tabla1[Semana 10])</f>
-        <v>8</v>
+        <f>SUM(Tabla1[Semana 9])</f>
+        <v>23</v>
       </c>
       <c r="D11">
-        <f>SUM(TablaDeDatos_Tareas!M15)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="13"/>
+      <c r="A12" s="129"/>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <f>SUM(Tabla1[Semana 10])</f>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="130">
+        <v>11</v>
+      </c>
+      <c r="C14" s="131">
         <f>SUM(Tabla1[Semana 11])</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="130">
         <f>SUM(TablaDeDatos_Tareas!W$64:W$83)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14">
+    <row r="15" spans="1:4">
+      <c r="A15" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="13">
         <f>SUM(Tabla1[Semana 12])</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>SUM(TablaDeDatos_Tareas!Y$64:Y$83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13">
-        <f>SUM(Tabla1[Semana 13])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <f>SUM(TablaDeDatos_Tareas!AA$64:AA$83)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" s="129"/>
       <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <f>SUM(Tabla1[Semana 13])</f>
+        <v>29.5</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="129"/>
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C17" s="13">
         <f>SUM(Tabla1[Semana 14])</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>SUM(TablaDeDatos_Tareas!AC$64:AC$83)</f>
-        <v>0</v>
+        <v>18.5</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17">
+    <row r="18" spans="1:22">
+      <c r="A18" s="129"/>
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C18" s="13">
         <f>SUM(Tabla1[Semana 15])</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>SUM(TablaDeDatos_Tareas!AE$64:AE$83)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
-      <c r="B18">
+    <row r="19" spans="1:22">
+      <c r="A19" s="129"/>
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="13">
         <f>SUM(Tabla1[Semana 16])</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>SUM(TablaDeDatos_Tareas!AG$64:AG$83)</f>
-        <v>0</v>
+        <v>6.5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
-      <c r="B19">
+    <row r="20" spans="1:22">
+      <c r="A20" s="129"/>
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C20" s="13">
         <f>SUM(Tabla1[Semana 17])</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>SUM(TablaDeDatos_Tareas!AI$64:AI$83)</f>
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20">
+    <row r="21" spans="1:22">
+      <c r="A21" s="129"/>
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C21" s="13">
         <f>SUM(Tabla1[Semana 18])</f>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <f>SUM(TablaDeDatos_Tareas!AK$64:AK$83)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="1:22">
       <c r="B23" s="13"/>
-      <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -15189,12 +16527,12 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="1:22">
       <c r="B24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="1:22">
       <c r="B25" s="13"/>
-      <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -15212,25 +16550,26 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="1:22">
       <c r="B26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="1:22">
       <c r="B27" s="13"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="1:22">
       <c r="B28" s="13"/>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="1:22">
       <c r="B29" s="13"/>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="1:22">
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="1:22">
       <c r="B31" s="13"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="1:22">
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:2">
@@ -15248,11 +16587,15 @@
     <row r="37" spans="2:2">
       <c r="B37" s="13"/>
     </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A15:A21"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15270,7 +16613,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
